--- a/source/input/configuration/default-ss-single-Tx_var.xlsx
+++ b/source/input/configuration/default-ss-single-Tx_var.xlsx
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>th0_Tx_deg</t>
-  </si>
-  <si>
-    <t>ph0_Tx_deg</t>
-  </si>
-  <si>
-    <t>VSM_cm3cm3</t>
-  </si>
-  <si>
-    <t>RMSH_cm</t>
-  </si>
-  <si>
     <t>sand_ratio</t>
   </si>
   <si>
@@ -41,6 +29,18 @@
   </si>
   <si>
     <t>rho_b (g/cm3)</t>
+  </si>
+  <si>
+    <t>Tx_th (deg)</t>
+  </si>
+  <si>
+    <t>Tx_ph (deg)</t>
+  </si>
+  <si>
+    <t>RMSH (cm)</t>
+  </si>
+  <si>
+    <t>VSM (cm3/cm3)</t>
   </si>
 </sst>
 </file>
@@ -369,25 +369,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +489,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/source/input/configuration/default-ss-single-Tx_var.xlsx
+++ b/source/input/configuration/default-ss-single-Tx_var.xlsx
@@ -31,9 +31,6 @@
     <t>rho_b (g/cm3)</t>
   </si>
   <si>
-    <t>Tx_th (deg)</t>
-  </si>
-  <si>
     <t>Tx_ph (deg)</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>VSM (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>Tx_el (deg)</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,16 +378,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
